--- a/biology/Zoologie/Chorthippus_vagans/Chorthippus_vagans.xlsx
+++ b/biology/Zoologie/Chorthippus_vagans/Chorthippus_vagans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chorthippus vagans, le criquet des pins, est une espèce de criquets de la famille des Acrididae.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chorthippus vagans a été nommé par Eversmann en 1848.Synonymes : Chorthippus (Glyptobothrus) vagans si on inclut le sous-genre ; Chorthippus vagans vagans (Eversmann, 1848) ; Glyptobothrus vagans Eversmann ; Stauroderus vagans Eversmann ; Glyptobothrus eckerleini Harz, 1975.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De couleur générale gris-brun sombre à jaunâtre, ou brun-rouge, l'extrémité de l'abdomen est orangé. Les arêtes supérieures du pronotum sont anguleuses, présentent une bande noire surmontée d'une fine ligne blanche. La longueur du corps varie de 12 à 15 mm chez le mâle et de 16 à 22 mm chez la femelle. Les extrémités des ailes atteignent environ les genoux postérieurs.
 </t>
@@ -573,7 +589,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre en Europe occidentale mais son aire est mal connue car il a souvent été confondu avec Chorthippus biguttulus. En France, il occuperait tout le territoire métropolitain sauf le nord-ouest (de la Somme au Nord). Absent de Corse.
 </t>
@@ -604,7 +622,9 @@
           <t>Biotope et stridulation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Réside dans des lieux chauds à couvert végétal clairsemé (forêts claires de pins, lisières ensoleillées, landes rocailleuses, dunes).
 La stridulation est composée de notes grinçantes, émises à raison de 5 par seconde environ et répétées en longues émissions de durée variable et séparées par de brefs silences.
